--- a/nsfa/renamed_loadings.xlsx
+++ b/nsfa/renamed_loadings.xlsx
@@ -612,10 +612,10 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
